--- a/ChengTaiXml/src/main/resources/template.xlsx
+++ b/ChengTaiXml/src/main/resources/template.xlsx
@@ -22,13 +22,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t xml:space="preserve">source harbor</t>
+    <t xml:space="preserve">SOURCE HARBOUR</t>
   </si>
   <si>
     <t xml:space="preserve">POD</t>
   </si>
   <si>
-    <t xml:space="preserve">country</t>
+    <t xml:space="preserve">COUNTRY</t>
   </si>
   <si>
     <t xml:space="preserve">IMP info</t>
@@ -61,7 +61,7 @@
     <t xml:space="preserve">T/T</t>
   </si>
   <si>
-    <t xml:space="preserve">extra info</t>
+    <t xml:space="preserve">EXTRA INFO</t>
   </si>
 </sst>
 </file>
@@ -71,11 +71,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -93,131 +94,28 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
-      <sz val="10.8"/>
-      <color rgb="FF993300"/>
+      <sz val="10.5"/>
+      <color rgb="FFF37B70"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -228,7 +126,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -252,83 +150,51 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -338,9 +204,9 @@
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFF37B70"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -356,7 +222,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -386,15 +252,16 @@
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.92"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,10 +301,10 @@
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1"/>
+      <c r="O1" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
